--- a/My_PDB.xlsx
+++ b/My_PDB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,106 +461,6 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1B8I</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>STRUCTURE OF THE HOMEOTIC UBX/EXD/DNA TERNARY COMPLEX</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>QASNHTFYPWMAIAGTNGLRRRGRQTYTRYQTLELEKEFHTNHYLTRRRRIEMAHALSLTERQIKIWFQNRRMKLKKEIQA</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4UUT</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Crystal structure of the Ultrabithorax protein</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>MQASNHTFYPWMAIAGTNGLRRRGRQTYTRYQTLELEKEFHTNHYLTRRRRIEMAHALCLTERQIKIWFQNRRMKLKKEIQAIKELNEQEKQA</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4CYC</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CRYSTAL STRUCTURE OF A UBX-EXD-DNA COMPLEX INCLUDING THE HEXAPEPTIDE AND UBDA MOTIFS</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MQASNHTFYPWMAIAGTNGLRRRGRQTYTRYQTLELEKEFHTNHYLTRRRRIEMAHALCLTERQIKIWFQNRRMKLKKEIQAIKELNEQEKQA</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4UUS</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CRYSTAL STRUCTURE OF A UBX-EXD-DNA COMPLEX INCLUDING THE UBDA MOTIF</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>GNGLRRRGRQTYTRYQTLELEKEFHTNHYLTRRRRIEMAHALSLTERQIKIWFQNRRMKLKKEIQAIKELNEQEKQA</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8F36</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ubx Homeodomain NMR solution structure</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>GTRRRGRQTYTRYQTLELEKEFHTNHYLTRRRRIEMAHALCLTERQIKIWFQNRRMKLKKEI</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>62</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/My_PDB.xlsx
+++ b/My_PDB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,1058 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2L8Y</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Solution structure of the E. coli outer membrane protein RcsF (periplasmatic domain)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MAPQPKAEPAKPKAPRATPVRIYTNAEELVGKPFRDLGEVSGDSCQASNQDSPPSIPTARKRMQINASKMKANAVLLHSCEVTSGTPGCYRQAVCIGSALNITAK</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4YZE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Crystal structure of E.coli NemR reduced form</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2KX7</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Solution structure of the E.coli RcsD-ABL domain (residues 688-795)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MERLLDDVCVMVDVTSAEIRNIVTRQLENWGATCITPDERLISQDYDIFLTDNPSNLTASGLLLSDDESGVREIGPGQLCVNFNMSNAMQEAVLQLIEVQLAQEEVTESRSHHHHHH</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2Y1B</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Crystal structure of the E. coli outer membrane lipoprotein RcsF</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MGSMLSRSPVEPVQSTAPQPKAEPAKPKAPRATPVRIYTNAEELVGKPFRDLGEVSGDSCQASNQDSPPSIPTARKRMQINASKMKANAVLLHSCEVTSGTPGCYRQAVCIGSALNITAKLEHHHHHH</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6M32</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cryo-EM structure of FMO-RC complex from green sulfur bacteria</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2AYZ</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Solution structure of the E.coli RcsC C-terminus (residues 817-949) containing phosphoreceiver domain</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>KAVSDNDDMMILVVDDHPINRRLLADQLGSLGYQCKTANDGVDALNVLSKNHIDIVLSDVNMPNMDGYRLTQRIRQLGLTLPVIGVTANALAEEKQRCLESGMDSCLSKPVTLDVIKQTLTLYAERVRKSRDS</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2AYX</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Solution structure of the E.coli RcsC C-terminus (residues 700-949) containing linker region and phosphoreceiver domain</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2AYY</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Solution structure of the E.coli RcsC C-terminus (residues 700-816) containing linker region</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MGGSGVEGLSGKRCWLAVRNASLCQFLETSLQRSGIVVTTYEGQEPTPEDVLITDEVVSKKWQGRAVVTFCRRHIGIPLEKAPGEWVHSVAAPHELPALLARIYLIEMESDDPANALPSTD</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5VXN</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Structure of two RcsB dimers bound to two parallel DNAs.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5W43</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Structure of the two-component response regulator RcsB-DNA complex</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6ZIL</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Structure of the isolated REC domain of RcsB from Salmonella enterica serovar Typhimurium in the apo form</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MNNMNVIIADDHPIVLFGIRKSLEQIEWVNVVGEFEDSTALINNLPKLDAHVLITDLSMPGDKYGDGITLIKYIKRHFPSLSIIVLTMNNNPAILSAVLDLDIEGIVLKQGAPTDLPKALAALQKGKKFTPESVSRLLEKISA</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7OD5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>F(M197)H mutant structure of Photosynthetic Reaction Center From Rhodobacter Sphaeroides strain RV LSP crystallization</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7P2C</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F(M197)H mutant structure of Photosynthetic Reaction Center From Rhodobacter Sphaeroides strain RV by fixed-target serial synchrotron crystallography (room temperature, 26keV)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6ZIX</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Structure of RcsB from Salmonella enterica serovar Typhimurium bound to promoter P1flhDC in the presence of phosphomimetic BeF3-</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6ZJ2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Structure of RcsB from Salmonella enterica serovar Typhimurium bound to promoter rprA in the presence of phosphomimetic BeF3-</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6ZII</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Structure of the isolated REC domain of RcsB from Salmonella enterica serovar Typhimurium in the presence of phosphomimetic BeF3-</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MNNMNVIIADDHPIVLFGIRKSLEQIEWVNVVGEFEDSTALINNLPKLDAHVLITDLSMPGDKYGDGITLIKYIKRHFPSLSIIVLTMNNNPAILSAVLDLDIEGIVLKQGAPTDLPKALAALQKGKKFTPESVSRLLEKISA</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3RJ7</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Human carbonic anhydrase II complexed with its inhibitor rhenium(I)triscarbonyl-cyclopentadienyl-carboxy-4-aminomethylbenzene-sulfonamide</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1PCR</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>STRUCTURE OF THE PHOTOSYNTHETIC REACTION CENTRE FROM RHODOBACTER SPHAEROIDES AT 2.65 ANGSTROMS RESOLUTION: COFACTORS AND PROTEIN-COFACTOR INTERACTIONS</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7VZG</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Structure of the Acidobacteria homodimeric reaction center bound with cytochrome c (the larger form)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6V98</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Crystal structure of Type VI secretion system effector, TseH (VCA0285)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1RVJ</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PHOTOSYNTHETIC REACTION CENTER DOUBLE MUTANT FROM RHODOBACTER SPHAEROIDES WITH ASP L213 REPLACED WITH ASN AND ARG H177 REPLACED WITH HIS</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1RZZ</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PHOTOSYNTHETIC REACTION CENTER DOUBLE MUTANT FROM RHODOBACTER SPHAEROIDES WITH ASP L213 REPLACED WITH ASN AND ARG M233 REPLACED WITH CYS IN THE CHARGE-NEUTRAL DQAQB STATE (TETRAGONAL FORM)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1S00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PHOTOSYNTHETIC REACTION CENTER DOUBLE MUTANT FROM RHODOBACTER SPHAEROIDES WITH ASP L213 REPLACED WITH ASN AND ARG M233 REPLACED WITH CYS IN THE CHARGE-SEPARATED D+QAQB- STATE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3V3Y</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Photosynthetic Reaction Center From Rhodobacter Sphaeroides strain RV</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3V3Z</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>I(L177)H mutant structure of photosynthetic reaction center from Rhodobacter sphaeroides</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5I4C</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Crystal structure of non-phosphorylated receiver domain of the stress response regulator RcsB from Escherichia coli</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MNNMNVIIADDHPIVLFGIRKSLEQIEWVNVVGEFEDSTALINNLPKLDAHVLITDLSMPGDKYGDGITLIKYIKRHFPSLSIIVLTMNNNPAILSAVLDLDIEGIVLKQGAPTDLPKALAALQKGKKFTPESVSRLLEKISAGGYG</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2XBG</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Crystal Structure of YCF48 from Thermosynechococcus elongatus</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5OJ3</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>YCF48 from Cyanidioschyzon merolae</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5OJP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>YCF48 bound to D1 peptide</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1RY5</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PHOTOSYNTHETIC REACTION CENTER MUTANT FROM RHODOBACTER SPHAEROIDES WITH ASP L213 REPLACED WITH ASN</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1RZH</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PHOTOSYNTHETIC REACTION CENTER DOUBLE MUTANT FROM RHODOBACTER SPHAEROIDES WITH ASP L213 REPLACED WITH ASN AND ARG M233 REPLACED WITH CYS IN THE CHARGE-NEUTRAL DQAQB STATE (TRIGONAL FORM)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4N7K</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Zinc Substituted Reaction Center of the Rhodobacter sphaeroides</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4N7L</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Zinc Substituted Reaction Center M(L214H) Variant of Rhodobacter sphaeroides</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1Y9I</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Crystal structure of low temperature requirement C protein from Listeria monocytogenes</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1SR2</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Solution structure of the Escherichia coli YojN Histidine-Phosphotransferase (HPt) domain</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MQEAVLQLIEVQLAQEEVTESPLGGDENAQLHASGYYALFVDTVPDDVKRLYTEAATSDFAALAQTAHRLKGVFAMLNLVPGKQLCETLEHLIREKDVPGIEKYISDIDSYVKSLL</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5OJ5</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>YCF48 bound to D1 peptide</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5OJR</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YCF48 bound to D1 peptide</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1EYT</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CRYSTAL STRUCTURE OF HIGH-POTENTIAL IRON-SULFUR PROTEIN FROM THERMOCHROMATIUM TEPIDUM</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>AAPANAVTADDPTAIALKYNQDATKSERVAAARPGLPPEEQHCANCQFMQANVGEGDWKGCQLFPGKLINVNGWCASWTLKAG</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7Y38</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Molecular architecture of the chikungunya virus replication complex</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1EYS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CRYSTAL STRUCTURE OF PHOTOSYNTHETIC REACTION CENTER FROM A THERMOPHILIC BACTERIUM, THERMOCHROMATIUM TEPIDUM</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4RCR</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>STRUCTURE OF THE REACTION CENTER FROM RHODOBACTER SPHAEROIDES R-26 AND 2.4.1: PROTEIN-COFACTOR (BACTERIOCHLOROPHYLL, BACTERIOPHEOPHYTIN, AND CAROTENOID) INTERACTIONS</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3ZUM</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Photosynthetic Reaction Centre Mutant with Phe L146 replaced with Ala</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3ZUW</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Photosynthetic Reaction Centre Mutant with TYR L128 replaced with HIS</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4IN5</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>(M)L214G mutant of the Rhodobacter sphaeroides Reaction Center</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4V9G</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>RC-LH1-PufX dimer complex from Rhodobacter sphaeroides</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MSKFYKIWMIFDPRRVFVAQGVFLFLLAVMIHLILLSTPSYNWLEISAAKYNRVAVAE</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7MH3</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Crystal structure of R. sphaeroides Photosynthetic Reaction Center variant; Y(M210)3-chlorotyrosine</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7MH4</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Crystal structure of R. sphaeroides Photosynthetic Reaction Center variant; Y(M210)3-bromotyrosine</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7MH5</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Crystal structure of R. sphaeroides Photosynthetic Reaction Center variant; Y(M210)3-iodotyrosine</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7MH8</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Crystal structure of R. sphaeroides Photosynthetic Reaction Center variant; Y(M210)3-methyltyrosine</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7MH9</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Crystal structure of R. sphaeroides Photosynthetic Reaction Center variant; Y(M210)3-nitrotyrosine</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2PRC</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>PHOTOSYNTHETIC REACTION CENTER FROM RHODOPSEUDOMONAS VIRIDIS (UBIQUINONE-2 COMPLEX)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3G7F</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Crystal structure of Blastochloris viridis heterodimer mutant reaction center</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3PRC</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>PHOTOSYNTHETIC REACTION CENTER FROM RHODOPSEUDOMONAS VIRIDIS (QB-DEPLETED)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4IN6</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>(M)L214A mutant of the Rhodobacter sphaeroides Reaction Center</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5LRI</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>PHOTOSYNTHETIC REACTION CENTER MUTANT WITH GLUL212 REPLACED WITH TRP (CHAIN L, EL212W)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5LSE</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>PHOTOSYNTHETIC REACTION CENTER MUTANT WITH Glu L212 replaced with Ala (CHAIN L, EL212W), Asp L213 replaced with ALA (Chain L, DL213A) AND LEU M215 REPLACED WITH ALA (CHAIN M, LM215A)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7XXF</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Structure of photosynthetic LH1-RC super-complex of Rhodopila globiformis</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8C3F</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Double mutant I(L177)H/F(M197)H structure of Photosynthetic Reaction Center From Cereibacter sphaeroides strain RV</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2P0C</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Catalytic Domain of the Proto-oncogene Tyrosine-protein Kinase MER</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3T6D</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Crystal Structure of the Reaction Centre from Blastochloris viridis strain DSM 133 (ATCC 19567) substrain-08</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3T6E</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Crystal Structure of the Reaction Centre from Blastochloris viridis strain DSM 133 (ATCC 19567) substrain-94</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4IN7</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>(M)L214N mutant of the Rhodobacter sphaeroides Reaction Center</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2WVR</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Human Cdt1:Geminin complex</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
